--- a/StudentsProject/CSYProject/ProjectMangent/项目计划（学生信息管理系统）_1130.xlsx
+++ b/StudentsProject/CSYProject/ProjectMangent/项目计划（学生信息管理系统）_1130.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="2670" windowWidth="17235" windowHeight="5040"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>产品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,31 +153,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CHLW队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斯泳  2012-11-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斯泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈斯泳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划（学生管理系统）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScoreInputForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studentlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘冰星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王东鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪思超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学生管理系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHLW队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈斯泳  2012-11-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈斯泳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈斯泳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目计划（学生管理系统）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -664,6 +692,15 @@
     <xf numFmtId="58" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,6 +719,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,51 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,141 +1166,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33:X33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="49" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="52" t="s">
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="97" t="s">
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="98"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="49" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="54"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="57"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="96"/>
-      <c r="AD2" s="49" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="49" t="s">
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="53"/>
-      <c r="AX2" s="54"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="57"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
@@ -1328,128 +1356,128 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="85" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="85" t="s">
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="86"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="79" t="s">
+      <c r="T4" s="101"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="80"/>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="79" t="s">
+      <c r="W4" s="95"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="79" t="s">
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
-      <c r="AE4" s="79" t="s">
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="96"/>
+      <c r="AE4" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="80"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="79" t="s">
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="AI4" s="80"/>
-      <c r="AJ4" s="80"/>
-      <c r="AK4" s="81"/>
-      <c r="AL4" s="79" t="s">
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="80"/>
-      <c r="AN4" s="80"/>
-      <c r="AO4" s="81"/>
-      <c r="AP4" s="79" t="s">
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AQ4" s="80"/>
-      <c r="AR4" s="80"/>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="79" t="s">
+      <c r="AQ4" s="95"/>
+      <c r="AR4" s="95"/>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AU4" s="80"/>
-      <c r="AV4" s="80"/>
-      <c r="AW4" s="81"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="96"/>
       <c r="AX4" s="2"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="82"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="84"/>
-      <c r="AL5" s="82"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
-      <c r="AO5" s="84"/>
-      <c r="AP5" s="82"/>
-      <c r="AQ5" s="83"/>
-      <c r="AR5" s="83"/>
-      <c r="AS5" s="84"/>
-      <c r="AT5" s="82"/>
-      <c r="AU5" s="83"/>
-      <c r="AV5" s="83"/>
-      <c r="AW5" s="84"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="99"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="98"/>
+      <c r="AJ5" s="98"/>
+      <c r="AK5" s="99"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="98"/>
+      <c r="AR5" s="98"/>
+      <c r="AS5" s="99"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="98"/>
+      <c r="AV5" s="98"/>
+      <c r="AW5" s="99"/>
       <c r="AX5" s="2"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -1475,37 +1503,37 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="62"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="62"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="62"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="62"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="63"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="90"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="77"/>
+      <c r="AR6" s="77"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="77"/>
+      <c r="AV6" s="77"/>
+      <c r="AW6" s="78"/>
       <c r="AX6" s="2"/>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.15">
@@ -1531,53 +1559,55 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="67" t="s">
+      <c r="S7" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="55">
+      <c r="T7" s="83"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="70">
         <v>41241</v>
       </c>
-      <c r="W7" s="56"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="55">
+      <c r="W7" s="71"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="70">
         <v>41242</v>
       </c>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="55">
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="70">
         <v>41241</v>
       </c>
-      <c r="AC7" s="56"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="55">
+      <c r="AC7" s="71"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="70">
         <v>41241</v>
       </c>
-      <c r="AF7" s="56"/>
-      <c r="AG7" s="57"/>
-      <c r="AH7" s="55">
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="70">
         <v>41242</v>
       </c>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="57"/>
-      <c r="AL7" s="55">
+      <c r="AI7" s="71"/>
+      <c r="AJ7" s="71"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="70">
         <v>41242</v>
       </c>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="57"/>
-      <c r="AP7" s="55">
+      <c r="AM7" s="71"/>
+      <c r="AN7" s="71"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="70">
         <v>41242</v>
       </c>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="55"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56"/>
-      <c r="AW7" s="57"/>
+      <c r="AQ7" s="71"/>
+      <c r="AR7" s="71"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="70">
+        <v>41242</v>
+      </c>
+      <c r="AU7" s="71"/>
+      <c r="AV7" s="71"/>
+      <c r="AW7" s="72"/>
       <c r="AX7" s="2"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.15">
@@ -1603,53 +1633,55 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="67" t="s">
+      <c r="S8" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="68"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="55">
+      <c r="T8" s="83"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="70">
         <v>41241</v>
       </c>
-      <c r="W8" s="56"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="55">
+      <c r="W8" s="71"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="70">
         <v>41242</v>
       </c>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="55">
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="70">
         <v>41241</v>
       </c>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="55">
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="70">
         <v>41243</v>
       </c>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="55">
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="70">
         <v>41242</v>
       </c>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="55">
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="70">
         <v>41242</v>
       </c>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="55">
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="70">
         <v>41243</v>
       </c>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="55"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="57"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="70">
+        <v>41243</v>
+      </c>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="72"/>
       <c r="AX8" s="2"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.15">
@@ -1675,49 +1707,55 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="67" t="s">
+      <c r="S9" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="55">
+      <c r="T9" s="83"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="70">
         <v>41241</v>
       </c>
-      <c r="W9" s="56"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="55">
+      <c r="W9" s="71"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="70">
         <v>41242</v>
       </c>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="55">
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="70">
         <v>41242</v>
       </c>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="55">
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="70">
         <v>41242</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="55">
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="71"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="70">
         <v>41242</v>
       </c>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="57"/>
+      <c r="AM9" s="71"/>
+      <c r="AN9" s="71"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AQ9" s="71"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AU9" s="71"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="72"/>
       <c r="AX9" s="2"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.15">
@@ -1739,37 +1777,37 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="58"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="58"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="58"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="59"/>
-      <c r="AW10" s="60"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="73"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="73"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="73"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="73"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="75"/>
       <c r="AX10" s="2"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.15">
@@ -1795,47 +1833,47 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="61">
+      <c r="S11" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="86"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="76">
         <v>41243</v>
       </c>
-      <c r="W11" s="62"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="61">
+      <c r="W11" s="77"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="76">
         <v>41243</v>
       </c>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="63"/>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="63"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="63"/>
-      <c r="AH11" s="61">
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="76">
         <v>41243</v>
       </c>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="63"/>
-      <c r="AL11" s="61">
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="77"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="76">
         <v>41243</v>
       </c>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="63"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="63"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="63"/>
+      <c r="AM11" s="77"/>
+      <c r="AN11" s="77"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="77"/>
+      <c r="AR11" s="77"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="77"/>
+      <c r="AV11" s="77"/>
+      <c r="AW11" s="78"/>
       <c r="AX11" s="2"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.15">
@@ -1846,7 +1884,9 @@
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="44"/>
+      <c r="H12" s="44" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -1857,37 +1897,49 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="57"/>
+      <c r="S12" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="83"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="70">
+        <v>41244</v>
+      </c>
+      <c r="W12" s="71"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="70">
+        <v>41245</v>
+      </c>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AC12" s="71"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="70">
+        <v>41245</v>
+      </c>
+      <c r="AI12" s="71"/>
+      <c r="AJ12" s="71"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="70">
+        <v>41246</v>
+      </c>
+      <c r="AM12" s="71"/>
+      <c r="AN12" s="71"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="71"/>
+      <c r="AR12" s="71"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="72"/>
       <c r="AX12" s="2"/>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.15">
@@ -1898,7 +1950,9 @@
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
@@ -1909,37 +1963,49 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="57"/>
-      <c r="AH13" s="55"/>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="57"/>
+      <c r="S13" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="83"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="70">
+        <v>41244</v>
+      </c>
+      <c r="W13" s="71"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="70">
+        <v>41245</v>
+      </c>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="70">
+        <v>41245</v>
+      </c>
+      <c r="AI13" s="71"/>
+      <c r="AJ13" s="71"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="70">
+        <v>41246</v>
+      </c>
+      <c r="AM13" s="71"/>
+      <c r="AN13" s="71"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="71"/>
+      <c r="AR13" s="71"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="70"/>
+      <c r="AU13" s="71"/>
+      <c r="AV13" s="71"/>
+      <c r="AW13" s="72"/>
       <c r="AX13" s="2"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.15">
@@ -1950,7 +2016,9 @@
       <c r="E14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -1961,37 +2029,49 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="57"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="57"/>
+      <c r="S14" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="83"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="70">
+        <v>41244</v>
+      </c>
+      <c r="W14" s="71"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="70">
+        <v>41245</v>
+      </c>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="70">
+        <v>41245</v>
+      </c>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="70">
+        <v>41246</v>
+      </c>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="70"/>
+      <c r="AQ14" s="71"/>
+      <c r="AR14" s="71"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="70"/>
+      <c r="AU14" s="71"/>
+      <c r="AV14" s="71"/>
+      <c r="AW14" s="72"/>
       <c r="AX14" s="2"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.15">
@@ -2002,7 +2082,9 @@
       <c r="E15" s="20"/>
       <c r="F15" s="21"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -2013,37 +2095,49 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="59"/>
-      <c r="AJ15" s="59"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="59"/>
-      <c r="AN15" s="59"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="59"/>
-      <c r="AR15" s="59"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="59"/>
-      <c r="AV15" s="59"/>
-      <c r="AW15" s="60"/>
+      <c r="S15" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="80"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="70">
+        <v>41244</v>
+      </c>
+      <c r="W15" s="71"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="70">
+        <v>41245</v>
+      </c>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="70">
+        <v>41244</v>
+      </c>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="70">
+        <v>41245</v>
+      </c>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="72"/>
+      <c r="AL15" s="70">
+        <v>41246</v>
+      </c>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="72"/>
+      <c r="AP15" s="73"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="73"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="75"/>
       <c r="AX15" s="2"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.15">
@@ -2069,47 +2163,47 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="T16" s="74"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="61">
+      <c r="S16" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="76">
         <v>41244</v>
       </c>
-      <c r="W16" s="62"/>
-      <c r="X16" s="63"/>
-      <c r="Y16" s="61">
+      <c r="W16" s="77"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="76">
         <v>41246</v>
       </c>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="61">
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="78"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="76">
         <v>41246</v>
       </c>
-      <c r="AI16" s="62"/>
-      <c r="AJ16" s="62"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="61">
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="78"/>
+      <c r="AL16" s="76">
         <v>41246</v>
       </c>
-      <c r="AM16" s="62"/>
-      <c r="AN16" s="62"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="61"/>
-      <c r="AQ16" s="62"/>
-      <c r="AR16" s="62"/>
-      <c r="AS16" s="63"/>
-      <c r="AT16" s="61"/>
-      <c r="AU16" s="62"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="63"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="78"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="78"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="78"/>
       <c r="AX16" s="2"/>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.15">
@@ -2130,37 +2224,37 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="57"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="57"/>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="57"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="72"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="70"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="70"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="72"/>
       <c r="AX17" s="2"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.15">
@@ -2182,37 +2276,37 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="57"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="57"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="55"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="55"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="57"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="71"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="70"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="70"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="72"/>
       <c r="AX18" s="2"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.15">
@@ -2234,29 +2328,29 @@
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="33"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
+      <c r="S19" s="82"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="72"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="35"/>
       <c r="AD19" s="36"/>
       <c r="AE19" s="34"/>
       <c r="AF19" s="35"/>
       <c r="AG19" s="36"/>
-      <c r="AH19" s="55"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="55"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="57"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="70"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="72"/>
       <c r="AP19" s="34"/>
       <c r="AQ19" s="35"/>
       <c r="AR19" s="35"/>
@@ -2286,37 +2380,37 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="55"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="55"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="55"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="57"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="72"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="71"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="70"/>
+      <c r="AM20" s="71"/>
+      <c r="AN20" s="71"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="71"/>
+      <c r="AR20" s="71"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="70"/>
+      <c r="AU20" s="71"/>
+      <c r="AV20" s="71"/>
+      <c r="AW20" s="72"/>
       <c r="AX20" s="2"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.15">
@@ -2338,29 +2432,29 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="32"/>
       <c r="R21" s="33"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="72"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="35"/>
       <c r="AD21" s="36"/>
       <c r="AE21" s="34"/>
       <c r="AF21" s="35"/>
       <c r="AG21" s="36"/>
-      <c r="AH21" s="55"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="55"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="57"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="71"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="71"/>
+      <c r="AN21" s="71"/>
+      <c r="AO21" s="72"/>
       <c r="AP21" s="34"/>
       <c r="AQ21" s="35"/>
       <c r="AR21" s="35"/>
@@ -2387,37 +2481,37 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="68"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="56"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="56"/>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="56"/>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="57"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="70"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="72"/>
+      <c r="AH22" s="70"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="70"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="72"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="70"/>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="72"/>
       <c r="AX22" s="2"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
@@ -2439,37 +2533,37 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="69"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="56"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="55"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="57"/>
-      <c r="AL23" s="55"/>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="57"/>
-      <c r="AP23" s="55"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="57"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="72"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="71"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="70"/>
+      <c r="AM23" s="71"/>
+      <c r="AN23" s="71"/>
+      <c r="AO23" s="72"/>
+      <c r="AP23" s="70"/>
+      <c r="AQ23" s="71"/>
+      <c r="AR23" s="71"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="70"/>
+      <c r="AU23" s="71"/>
+      <c r="AV23" s="71"/>
+      <c r="AW23" s="72"/>
       <c r="AX23" s="2"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
@@ -2491,29 +2585,29 @@
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
       <c r="R24" s="47"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="83"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="72"/>
       <c r="AB24" s="40"/>
       <c r="AC24" s="41"/>
       <c r="AD24" s="42"/>
       <c r="AE24" s="40"/>
       <c r="AF24" s="41"/>
       <c r="AG24" s="42"/>
-      <c r="AH24" s="55"/>
-      <c r="AI24" s="56"/>
-      <c r="AJ24" s="56"/>
-      <c r="AK24" s="57"/>
-      <c r="AL24" s="55"/>
-      <c r="AM24" s="56"/>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="57"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="71"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="70"/>
+      <c r="AM24" s="71"/>
+      <c r="AN24" s="71"/>
+      <c r="AO24" s="72"/>
       <c r="AP24" s="40"/>
       <c r="AQ24" s="41"/>
       <c r="AR24" s="41"/>
@@ -2543,29 +2637,29 @@
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="83"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="72"/>
       <c r="AB25" s="48"/>
       <c r="AC25" s="41"/>
       <c r="AD25" s="42"/>
       <c r="AE25" s="40"/>
       <c r="AF25" s="41"/>
       <c r="AG25" s="42"/>
-      <c r="AH25" s="55"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="55"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="57"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="71"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="70"/>
+      <c r="AM25" s="71"/>
+      <c r="AN25" s="71"/>
+      <c r="AO25" s="72"/>
       <c r="AP25" s="40"/>
       <c r="AQ25" s="41"/>
       <c r="AR25" s="41"/>
@@ -2580,9 +2674,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="37"/>
       <c r="C26" s="26"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="1"/>
       <c r="H26" s="45"/>
       <c r="I26" s="38"/>
@@ -2595,28 +2689,28 @@
       <c r="P26" s="38"/>
       <c r="Q26" s="38"/>
       <c r="R26" s="39"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="83"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="72"/>
       <c r="AC26" s="41"/>
       <c r="AD26" s="42"/>
       <c r="AE26" s="40"/>
       <c r="AF26" s="41"/>
       <c r="AG26" s="42"/>
-      <c r="AH26" s="55"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="55"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="57"/>
+      <c r="AH26" s="70"/>
+      <c r="AI26" s="71"/>
+      <c r="AJ26" s="71"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="70"/>
+      <c r="AM26" s="71"/>
+      <c r="AN26" s="71"/>
+      <c r="AO26" s="72"/>
       <c r="AP26" s="40"/>
       <c r="AQ26" s="41"/>
       <c r="AR26" s="41"/>
@@ -2646,37 +2740,37 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="15"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="78"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="58"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="58"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="58"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="58"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="60"/>
+      <c r="S27" s="91"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="75"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="73"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="74"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="73"/>
+      <c r="AI27" s="74"/>
+      <c r="AJ27" s="74"/>
+      <c r="AK27" s="75"/>
+      <c r="AL27" s="73"/>
+      <c r="AM27" s="74"/>
+      <c r="AN27" s="74"/>
+      <c r="AO27" s="75"/>
+      <c r="AP27" s="73"/>
+      <c r="AQ27" s="74"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="75"/>
+      <c r="AT27" s="73"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="75"/>
       <c r="AX27" s="2"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
@@ -2702,47 +2796,47 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="T28" s="74"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="61">
+      <c r="S28" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" s="89"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="76">
         <v>41246</v>
       </c>
-      <c r="W28" s="62"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="61">
+      <c r="W28" s="77"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="76">
         <v>41247</v>
       </c>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="61"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="61">
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="77"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="76">
         <v>41247</v>
       </c>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="61">
+      <c r="AI28" s="77"/>
+      <c r="AJ28" s="77"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="76">
         <v>41247</v>
       </c>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="61"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="63"/>
+      <c r="AM28" s="77"/>
+      <c r="AN28" s="77"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="77"/>
+      <c r="AV28" s="77"/>
+      <c r="AW28" s="78"/>
       <c r="AX28" s="2"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
@@ -2764,37 +2858,37 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="67"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="57"/>
-      <c r="AE29" s="55"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="55"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="55"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="55"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="55"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="57"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="70"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="70"/>
+      <c r="AM29" s="71"/>
+      <c r="AN29" s="71"/>
+      <c r="AO29" s="72"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="71"/>
+      <c r="AR29" s="71"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="71"/>
+      <c r="AV29" s="71"/>
+      <c r="AW29" s="72"/>
       <c r="AX29" s="2"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
@@ -2816,37 +2910,37 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="57"/>
-      <c r="AE30" s="55"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="55"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="55"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="55"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="55"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="57"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="83"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="70"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="72"/>
+      <c r="AB30" s="70"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="70"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="72"/>
+      <c r="AH30" s="70"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="70"/>
+      <c r="AM30" s="71"/>
+      <c r="AN30" s="71"/>
+      <c r="AO30" s="72"/>
+      <c r="AP30" s="70"/>
+      <c r="AQ30" s="71"/>
+      <c r="AR30" s="71"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="70"/>
+      <c r="AU30" s="71"/>
+      <c r="AV30" s="71"/>
+      <c r="AW30" s="72"/>
       <c r="AX30" s="2"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
@@ -2868,37 +2962,37 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="57"/>
-      <c r="AE31" s="55"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="55"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="55"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="55"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="55"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="57"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="83"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="72"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="72"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="72"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="70"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
+      <c r="AO31" s="72"/>
+      <c r="AP31" s="70"/>
+      <c r="AQ31" s="71"/>
+      <c r="AR31" s="71"/>
+      <c r="AS31" s="72"/>
+      <c r="AT31" s="70"/>
+      <c r="AU31" s="71"/>
+      <c r="AV31" s="71"/>
+      <c r="AW31" s="72"/>
       <c r="AX31" s="2"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
@@ -2920,37 +3014,37 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="57"/>
-      <c r="AE32" s="55"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="55"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="55"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="55"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="55"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="57"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="83"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="72"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="72"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="70"/>
+      <c r="AM32" s="71"/>
+      <c r="AN32" s="71"/>
+      <c r="AO32" s="72"/>
+      <c r="AP32" s="70"/>
+      <c r="AQ32" s="71"/>
+      <c r="AR32" s="71"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="70"/>
+      <c r="AU32" s="71"/>
+      <c r="AV32" s="71"/>
+      <c r="AW32" s="72"/>
       <c r="AX32" s="2"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.15">
@@ -2972,43 +3066,43 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="67"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="57"/>
-      <c r="AE33" s="55"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="55"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="55"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="55"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="55"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="57"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="83"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="72"/>
+      <c r="Y33" s="70"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="72"/>
+      <c r="AB33" s="70"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="70"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="70"/>
+      <c r="AM33" s="71"/>
+      <c r="AN33" s="71"/>
+      <c r="AO33" s="72"/>
+      <c r="AP33" s="70"/>
+      <c r="AQ33" s="71"/>
+      <c r="AR33" s="71"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="70"/>
+      <c r="AU33" s="71"/>
+      <c r="AV33" s="71"/>
+      <c r="AW33" s="72"/>
       <c r="AX33" s="2"/>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="105"/>
+      <c r="C34" s="51"/>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
@@ -3024,37 +3118,37 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="15"/>
-      <c r="S34" s="64"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="58"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="58"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="60"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="60"/>
-      <c r="AT34" s="58"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="60"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="80"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="74"/>
+      <c r="X34" s="75"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="74"/>
+      <c r="AA34" s="75"/>
+      <c r="AB34" s="73"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="73"/>
+      <c r="AF34" s="74"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="73"/>
+      <c r="AI34" s="74"/>
+      <c r="AJ34" s="74"/>
+      <c r="AK34" s="75"/>
+      <c r="AL34" s="73"/>
+      <c r="AM34" s="74"/>
+      <c r="AN34" s="74"/>
+      <c r="AO34" s="75"/>
+      <c r="AP34" s="73"/>
+      <c r="AQ34" s="74"/>
+      <c r="AR34" s="74"/>
+      <c r="AS34" s="75"/>
+      <c r="AT34" s="73"/>
+      <c r="AU34" s="74"/>
+      <c r="AV34" s="74"/>
+      <c r="AW34" s="75"/>
       <c r="AX34" s="2"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.15">
